--- a/biology/Microbiologie/Marie-Laure_Joly-Guillou/Marie-Laure_Joly-Guillou.xlsx
+++ b/biology/Microbiologie/Marie-Laure_Joly-Guillou/Marie-Laure_Joly-Guillou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Laure Joly-Guillou, née le 23 octobre 1951 à Toulouse. Bactériologiste reconnu internationalement pour ses travaux sur les BMR (bactéries multirésistantes).
 Elle fut la première à lutter contre la iatrogènie en créant le badge "Halte aux bijoux!!". Il s'agit d'un porte bijou que l'on dispose sur la blouse.
 Le 6 mai 2010, elle reçoit le privilège de par ses pairs de nommer de son nom une bactérie : Acinetobacter guillouiae
 Elle a reçu la légion d'honneur selon le décret du 22 avril 2011, du Premier ministre de l'époque François Fillon sur proposition de la direction de l'hôpital universitaire d'Angers.
-Elle a écrit le livre L'infection liée aux soins - Stratégies de maîtrise des infections nosocomiales en 2005[1].
+Elle a écrit le livre L'infection liée aux soins - Stratégies de maîtrise des infections nosocomiales en 2005.
 ↑ Marie-Laure Guillou, Bernard Regnier, Marie-Claude Devoluy et Philippe Thévenot, L'infection liée aux soins: stratégies de maîtrise des infections nosocomiales, épidémiologie bactérienne et clinique, BioMérieux, 2005 (ISBN 978-2-9514963-7-8)
  Portail de la microbiologie   Portail de la France                    </t>
         </is>
